--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nodal</t>
+  </si>
+  <si>
+    <t>Acvr1b</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Nodal</t>
-  </si>
-  <si>
-    <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H2">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I2">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J2">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N2">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O2">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P2">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q2">
-        <v>1.631290006531667</v>
+        <v>1.904059004364111</v>
       </c>
       <c r="R2">
-        <v>14.681610058785</v>
+        <v>17.136531039277</v>
       </c>
       <c r="S2">
-        <v>0.04272383729984326</v>
+        <v>0.06739536913790732</v>
       </c>
       <c r="T2">
-        <v>0.04272383729984326</v>
+        <v>0.06739536913790733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H3">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I3">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J3">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N3">
         <v>17.409842</v>
       </c>
       <c r="O3">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P3">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q3">
-        <v>5.036081159252667</v>
+        <v>3.844416162890444</v>
       </c>
       <c r="R3">
-        <v>45.32473043327401</v>
+        <v>34.59974546601399</v>
       </c>
       <c r="S3">
-        <v>0.1318960523360138</v>
+        <v>0.136075534331599</v>
       </c>
       <c r="T3">
-        <v>0.1318960523360138</v>
+        <v>0.136075534331599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H4">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I4">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J4">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N4">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O4">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P4">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q4">
-        <v>3.903603753519</v>
+        <v>3.77448690108</v>
       </c>
       <c r="R4">
-        <v>35.132433781671</v>
+        <v>33.97038210971999</v>
       </c>
       <c r="S4">
-        <v>0.1022362246937272</v>
+        <v>0.1336003440132033</v>
       </c>
       <c r="T4">
-        <v>0.1022362246937272</v>
+        <v>0.1336003440132033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H5">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I5">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J5">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N5">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O5">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P5">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q5">
-        <v>1.771323838498333</v>
+        <v>0.7661030386362222</v>
       </c>
       <c r="R5">
-        <v>15.941914546485</v>
+        <v>6.894927347725999</v>
       </c>
       <c r="S5">
-        <v>0.04639135357804178</v>
+        <v>0.02711670014858803</v>
       </c>
       <c r="T5">
-        <v>0.04639135357804178</v>
+        <v>0.02711670014858803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H6">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I6">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J6">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N6">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O6">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P6">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q6">
-        <v>5.583871757078001</v>
+        <v>4.353431419039666</v>
       </c>
       <c r="R6">
-        <v>50.254845813702</v>
+        <v>39.18088277135699</v>
       </c>
       <c r="S6">
-        <v>0.1462428063050599</v>
+        <v>0.1540924503023622</v>
       </c>
       <c r="T6">
-        <v>0.1462428063050599</v>
+        <v>0.1540924503023622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8677990000000001</v>
+        <v>0.6624556666666667</v>
       </c>
       <c r="H7">
-        <v>2.603397</v>
+        <v>1.987367</v>
       </c>
       <c r="I7">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="J7">
-        <v>0.572085894289023</v>
+        <v>0.6246315213144824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N7">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O7">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P7">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q7">
-        <v>3.917326259106</v>
+        <v>3.004639883834333</v>
       </c>
       <c r="R7">
-        <v>35.255936331954</v>
+        <v>27.041758954509</v>
       </c>
       <c r="S7">
-        <v>0.1025956200763371</v>
+        <v>0.1063511233808226</v>
       </c>
       <c r="T7">
-        <v>0.1025956200763371</v>
+        <v>0.1063511233808226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.390398</v>
       </c>
       <c r="I8">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J8">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N8">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O8">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P8">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q8">
-        <v>0.2446236036877778</v>
+        <v>0.3740329929931111</v>
       </c>
       <c r="R8">
-        <v>2.20161243319</v>
+        <v>3.366296936938</v>
       </c>
       <c r="S8">
-        <v>0.006406744969816055</v>
+        <v>0.0132391336480382</v>
       </c>
       <c r="T8">
-        <v>0.006406744969816055</v>
+        <v>0.01323913364803821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.390398</v>
       </c>
       <c r="I9">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J9">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N9">
         <v>17.409842</v>
       </c>
       <c r="O9">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P9">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q9">
-        <v>0.7551963885684445</v>
+        <v>0.7551963885684444</v>
       </c>
       <c r="R9">
-        <v>6.796767497116001</v>
+        <v>6.796767497115999</v>
       </c>
       <c r="S9">
-        <v>0.01977875638631953</v>
+        <v>0.02673065239182676</v>
       </c>
       <c r="T9">
-        <v>0.01977875638631953</v>
+        <v>0.02673065239182676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.390398</v>
       </c>
       <c r="I10">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J10">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N10">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O10">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P10">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q10">
-        <v>0.585373301946</v>
+        <v>0.74145949752</v>
       </c>
       <c r="R10">
-        <v>5.268359717514</v>
+        <v>6.67313547768</v>
       </c>
       <c r="S10">
-        <v>0.01533105310023086</v>
+        <v>0.0262444264708363</v>
       </c>
       <c r="T10">
-        <v>0.01533105310023086</v>
+        <v>0.0262444264708363</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.390398</v>
       </c>
       <c r="I11">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J11">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N11">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O11">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P11">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q11">
-        <v>0.2656226783322223</v>
+        <v>0.1504931369382222</v>
       </c>
       <c r="R11">
-        <v>2.39060410499</v>
+        <v>1.354438232444</v>
       </c>
       <c r="S11">
-        <v>0.006956715266307964</v>
+        <v>0.005326799481227409</v>
       </c>
       <c r="T11">
-        <v>0.006956715266307964</v>
+        <v>0.005326799481227409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.390398</v>
       </c>
       <c r="I12">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J12">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N12">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O12">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P12">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q12">
-        <v>0.8373415065853335</v>
+        <v>0.8551872498286666</v>
       </c>
       <c r="R12">
-        <v>7.536073559268001</v>
+        <v>7.696685248458</v>
       </c>
       <c r="S12">
-        <v>0.02193015475391681</v>
+        <v>0.03026989197925778</v>
       </c>
       <c r="T12">
-        <v>0.02193015475391681</v>
+        <v>0.03026989197925779</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.390398</v>
       </c>
       <c r="I13">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="J13">
-        <v>0.08578837148488917</v>
+        <v>0.1227024986618633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N13">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O13">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P13">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q13">
-        <v>0.5874310898040001</v>
+        <v>0.5902308941273333</v>
       </c>
       <c r="R13">
-        <v>5.286879808236001</v>
+        <v>5.312078047146</v>
       </c>
       <c r="S13">
-        <v>0.01538494700829795</v>
+        <v>0.02089159469067686</v>
       </c>
       <c r="T13">
-        <v>0.01538494700829795</v>
+        <v>0.02089159469067686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H14">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I14">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J14">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N14">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O14">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P14">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q14">
-        <v>0.1117686208961111</v>
+        <v>0.4922688385463334</v>
       </c>
       <c r="R14">
-        <v>1.005917588065</v>
+        <v>4.430419546917</v>
       </c>
       <c r="S14">
-        <v>0.002927244300690575</v>
+        <v>0.01742416595960421</v>
       </c>
       <c r="T14">
-        <v>0.002927244300690576</v>
+        <v>0.01742416595960422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H15">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I15">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J15">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N15">
         <v>17.409842</v>
       </c>
       <c r="O15">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P15">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q15">
-        <v>0.3450495274517778</v>
+        <v>0.9939220764993332</v>
       </c>
       <c r="R15">
-        <v>3.105445747066</v>
+        <v>8.945298688493999</v>
       </c>
       <c r="S15">
-        <v>0.009036921584887661</v>
+        <v>0.03518049865390533</v>
       </c>
       <c r="T15">
-        <v>0.009036921584887662</v>
+        <v>0.03518049865390533</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H16">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I16">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J16">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N16">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O16">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P16">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q16">
-        <v>0.267457292271</v>
+        <v>0.9758428066799999</v>
       </c>
       <c r="R16">
-        <v>2.407115630439</v>
+        <v>8.782585260119999</v>
       </c>
       <c r="S16">
-        <v>0.007004764201270186</v>
+        <v>0.03454057149806348</v>
       </c>
       <c r="T16">
-        <v>0.007004764201270188</v>
+        <v>0.03454057149806348</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H17">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I17">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J17">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N17">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O17">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P17">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q17">
-        <v>0.1213631063738889</v>
+        <v>0.1980656335606667</v>
       </c>
       <c r="R17">
-        <v>1.092267957365</v>
+        <v>1.782590702046</v>
       </c>
       <c r="S17">
-        <v>0.003178525945822341</v>
+        <v>0.007010657997866309</v>
       </c>
       <c r="T17">
-        <v>0.003178525945822341</v>
+        <v>0.007010657997866309</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H18">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I18">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J18">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N18">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O18">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P18">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q18">
-        <v>0.3825816642353334</v>
+        <v>1.125521122733</v>
       </c>
       <c r="R18">
-        <v>3.443234978118</v>
+        <v>10.129690104597</v>
       </c>
       <c r="S18">
-        <v>0.01001989634660117</v>
+        <v>0.03983852988024145</v>
       </c>
       <c r="T18">
-        <v>0.01001989634660117</v>
+        <v>0.03983852988024145</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.05945766666666667</v>
+        <v>0.171269</v>
       </c>
       <c r="H19">
-        <v>0.178373</v>
+        <v>0.513807</v>
       </c>
       <c r="I19">
-        <v>0.03919674072836985</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="J19">
-        <v>0.03919674072836986</v>
+        <v>0.1614900761017116</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N19">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O19">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P19">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q19">
-        <v>0.268397496354</v>
+        <v>0.776809217821</v>
       </c>
       <c r="R19">
-        <v>2.415577467186</v>
+        <v>6.991282960388999</v>
       </c>
       <c r="S19">
-        <v>0.00702938834909792</v>
+        <v>0.02749565211203081</v>
       </c>
       <c r="T19">
-        <v>0.007029388349097923</v>
+        <v>0.02749565211203081</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H20">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I20">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J20">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N20">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O20">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P20">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q20">
-        <v>0.7428286926055555</v>
+        <v>0.1849594961124444</v>
       </c>
       <c r="R20">
-        <v>6.685458233449999</v>
+        <v>1.664635465012</v>
       </c>
       <c r="S20">
-        <v>0.01945484376013001</v>
+        <v>0.006546757998301916</v>
       </c>
       <c r="T20">
-        <v>0.01945484376013001</v>
+        <v>0.006546757998301918</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H21">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I21">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J21">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N21">
         <v>17.409842</v>
       </c>
       <c r="O21">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P21">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q21">
-        <v>2.293243732508889</v>
+        <v>0.3734449797537777</v>
       </c>
       <c r="R21">
-        <v>20.63919359258</v>
+        <v>3.361004817784</v>
       </c>
       <c r="S21">
-        <v>0.06006054823133811</v>
+        <v>0.01321832054863739</v>
       </c>
       <c r="T21">
-        <v>0.06006054823133812</v>
+        <v>0.01321832054863739</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H22">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I22">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J22">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N22">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O22">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P22">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q22">
-        <v>1.77755571423</v>
+        <v>0.36665208048</v>
       </c>
       <c r="R22">
-        <v>15.99800142807</v>
+        <v>3.29986872432</v>
       </c>
       <c r="S22">
-        <v>0.04655456774827914</v>
+        <v>0.01297788159531526</v>
       </c>
       <c r="T22">
-        <v>0.04655456774827914</v>
+        <v>0.01297788159531527</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H23">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I23">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J23">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N23">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O23">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P23">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q23">
-        <v>0.8065948824944443</v>
+        <v>0.07441892907288888</v>
       </c>
       <c r="R23">
-        <v>7.259353942449999</v>
+        <v>0.669770361656</v>
       </c>
       <c r="S23">
-        <v>0.02112489403392289</v>
+        <v>0.002634104922284216</v>
       </c>
       <c r="T23">
-        <v>0.02112489403392289</v>
+        <v>0.002634104922284217</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H24">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I24">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J24">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N24">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O24">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P24">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q24">
-        <v>2.542687161926667</v>
+        <v>0.4228905090546666</v>
       </c>
       <c r="R24">
-        <v>22.88418445734</v>
+        <v>3.806014581492</v>
       </c>
       <c r="S24">
-        <v>0.06659352547713061</v>
+        <v>0.01496847623804341</v>
       </c>
       <c r="T24">
-        <v>0.06659352547713061</v>
+        <v>0.01496847623804342</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.3951633333333333</v>
+        <v>0.06435066666666667</v>
       </c>
       <c r="H25">
-        <v>1.18549</v>
+        <v>0.193052</v>
       </c>
       <c r="I25">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118856</v>
       </c>
       <c r="J25">
-        <v>0.2605066022664595</v>
+        <v>0.06067644499118857</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N25">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O25">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P25">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q25">
-        <v>1.78380443202</v>
+        <v>0.2918694628893334</v>
       </c>
       <c r="R25">
-        <v>16.05423988818</v>
+        <v>2.626825166004</v>
       </c>
       <c r="S25">
-        <v>0.04671822301565873</v>
+        <v>0.01033090368860637</v>
       </c>
       <c r="T25">
-        <v>0.04671822301565873</v>
+        <v>0.01033090368860637</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H26">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I26">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J26">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N26">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O26">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P26">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q26">
-        <v>0.1209664904511111</v>
+        <v>0.09297124372322221</v>
       </c>
       <c r="R26">
-        <v>1.08869841406</v>
+        <v>0.836741193509</v>
       </c>
       <c r="S26">
-        <v>0.003168138489215951</v>
+        <v>0.003290775798216126</v>
       </c>
       <c r="T26">
-        <v>0.003168138489215951</v>
+        <v>0.003290775798216127</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H27">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I27">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J27">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N27">
         <v>17.409842</v>
       </c>
       <c r="O27">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P27">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q27">
-        <v>0.3734449797537778</v>
+        <v>0.1877148508708888</v>
       </c>
       <c r="R27">
-        <v>3.361004817784</v>
+        <v>1.689433657838</v>
       </c>
       <c r="S27">
-        <v>0.009780604608352905</v>
+        <v>0.006644285517473134</v>
       </c>
       <c r="T27">
-        <v>0.009780604608352906</v>
+        <v>0.006644285517473135</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H28">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I28">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J28">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N28">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O28">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P28">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q28">
-        <v>0.289467381204</v>
+        <v>0.18430035036</v>
       </c>
       <c r="R28">
-        <v>2.605206430836</v>
+        <v>1.65870315324</v>
       </c>
       <c r="S28">
-        <v>0.007581213180154015</v>
+        <v>0.006523427118744161</v>
       </c>
       <c r="T28">
-        <v>0.007581213180154015</v>
+        <v>0.006523427118744162</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H29">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I29">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J29">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N29">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O29">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P29">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q29">
-        <v>0.1313505430288889</v>
+        <v>0.03740721908244444</v>
       </c>
       <c r="R29">
-        <v>1.18215488726</v>
+        <v>0.336664971742</v>
       </c>
       <c r="S29">
-        <v>0.003440099067083553</v>
+        <v>0.001324052107999597</v>
       </c>
       <c r="T29">
-        <v>0.003440099067083553</v>
+        <v>0.001324052107999597</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H30">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I30">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J30">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N30">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O30">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P30">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q30">
-        <v>0.4140657803813333</v>
+        <v>0.2125690078743333</v>
       </c>
       <c r="R30">
-        <v>3.726592023432</v>
+        <v>1.913121070869</v>
       </c>
       <c r="S30">
-        <v>0.0108444721426676</v>
+        <v>0.007524014077365138</v>
       </c>
       <c r="T30">
-        <v>0.0108444721426676</v>
+        <v>0.00752401407736514</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.06435066666666667</v>
+        <v>0.03234633333333333</v>
       </c>
       <c r="H31">
-        <v>0.193052</v>
+        <v>0.097039</v>
       </c>
       <c r="I31">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075413</v>
       </c>
       <c r="J31">
-        <v>0.04242239123125841</v>
+        <v>0.03049945893075414</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N31">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O31">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P31">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q31">
-        <v>0.290484958296</v>
+        <v>0.1467103205836666</v>
       </c>
       <c r="R31">
-        <v>2.614364624664</v>
+        <v>1.320392885253</v>
       </c>
       <c r="S31">
-        <v>0.007607863743784383</v>
+        <v>0.005192904310955977</v>
       </c>
       <c r="T31">
-        <v>0.007607863743784384</v>
+        <v>0.005192904310955978</v>
       </c>
     </row>
   </sheetData>
